--- a/App/uap_cross_sell/www/cs_upload_template.xlsx
+++ b/App/uap_cross_sell/www/cs_upload_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contracts\UAP\D - Working Papers\UAP-cross-sell\Models\KE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contracts\UAP\D - Working Papers\UAP-cross-sell\App\uap_cross_sell\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CCF027-149C-487B-988B-14DA36A739B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA001B23-2EE4-45D8-B58B-F45FADF7BB7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{24700C77-9C92-4468-B9C5-B77420552ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_acc" sheetId="1" r:id="rId1"/>
     <sheet name="customer_prod" sheetId="2" r:id="rId2"/>
-    <sheet name="valid_product_names" sheetId="3" r:id="rId3"/>
+    <sheet name="valid_product_names" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Old Mutual Equity Fund</t>
   </si>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -154,8 +168,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,9 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C783F41-9AF8-4698-A4E2-A0CDF8EF2C34}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -482,72 +494,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1537</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1397</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -559,82 +571,96 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a product from the drop down below." xr:uid="{477D1398-E957-4CC1-AC67-53ED8644704C}">
+          <x14:formula1>
+            <xm:f>valid_product_names!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D5C44B-F88A-4340-B982-5E1C9A94327D}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -642,107 +668,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
